--- a/metro/metro.xlsx
+++ b/metro/metro.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="24780" windowHeight="34280" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="24780" windowHeight="34280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -791,9 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:E47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -1588,7 +1587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
@@ -1625,7 +1624,7 @@
         <v>990</v>
       </c>
       <c r="E2" s="5">
-        <f>B2/10+C2/10+D2/20</f>
+        <f t="shared" ref="E2:E47" si="0">B2/10+C2/10+D2/20</f>
         <v>242</v>
       </c>
     </row>
@@ -1643,7 +1642,7 @@
         <v>806</v>
       </c>
       <c r="E3" s="5">
-        <f>B3/10+C3/10+D3/20</f>
+        <f t="shared" si="0"/>
         <v>227.5</v>
       </c>
     </row>
@@ -1661,7 +1660,7 @@
         <v>824</v>
       </c>
       <c r="E4" s="5">
-        <f>B4/10+C4/10+D4/20</f>
+        <f t="shared" si="0"/>
         <v>178.3</v>
       </c>
     </row>
@@ -1679,7 +1678,7 @@
         <v>574</v>
       </c>
       <c r="E5" s="5">
-        <f>B5/10+C5/10+D5/20</f>
+        <f t="shared" si="0"/>
         <v>114.9</v>
       </c>
     </row>
@@ -1697,7 +1696,7 @@
         <v>570</v>
       </c>
       <c r="E6" s="5">
-        <f>B6/10+C6/10+D6/20</f>
+        <f t="shared" si="0"/>
         <v>100.5</v>
       </c>
     </row>
@@ -1715,7 +1714,7 @@
         <v>515</v>
       </c>
       <c r="E7" s="5">
-        <f>B7/10+C7/10+D7/20</f>
+        <f t="shared" si="0"/>
         <v>83.55</v>
       </c>
     </row>
@@ -1733,7 +1732,7 @@
         <v>401</v>
       </c>
       <c r="E8" s="5">
-        <f>B8/10+C8/10+D8/20</f>
+        <f t="shared" si="0"/>
         <v>78.849999999999994</v>
       </c>
     </row>
@@ -1751,7 +1750,7 @@
         <v>456</v>
       </c>
       <c r="E9" s="5">
-        <f>B9/10+C9/10+D9/20</f>
+        <f t="shared" si="0"/>
         <v>76.899999999999991</v>
       </c>
     </row>
@@ -1769,7 +1768,7 @@
         <v>504</v>
       </c>
       <c r="E10" s="5">
-        <f>B10/10+C10/10+D10/20</f>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
     </row>
@@ -1787,7 +1786,7 @@
         <v>477</v>
       </c>
       <c r="E11" s="5">
-        <f>B11/10+C11/10+D11/20</f>
+        <f t="shared" si="0"/>
         <v>52.35</v>
       </c>
     </row>
@@ -1805,7 +1804,7 @@
         <v>286</v>
       </c>
       <c r="E12" s="5">
-        <f>B12/10+C12/10+D12/20</f>
+        <f t="shared" si="0"/>
         <v>48.900000000000006</v>
       </c>
     </row>
@@ -1823,7 +1822,7 @@
         <v>296</v>
       </c>
       <c r="E13" s="5">
-        <f>B13/10+C13/10+D13/20</f>
+        <f t="shared" si="0"/>
         <v>37.299999999999997</v>
       </c>
     </row>
@@ -1841,7 +1840,7 @@
         <v>210</v>
       </c>
       <c r="E14" s="5">
-        <f>B14/10+C14/10+D14/20</f>
+        <f t="shared" si="0"/>
         <v>34.6</v>
       </c>
     </row>
@@ -1859,7 +1858,7 @@
         <v>245</v>
       </c>
       <c r="E15" s="5">
-        <f>B15/10+C15/10+D15/20</f>
+        <f t="shared" si="0"/>
         <v>32.65</v>
       </c>
     </row>
@@ -1877,7 +1876,7 @@
         <v>421</v>
       </c>
       <c r="E16" s="5">
-        <f>B16/10+C16/10+D16/20</f>
+        <f t="shared" si="0"/>
         <v>29.950000000000003</v>
       </c>
     </row>
@@ -1895,7 +1894,7 @@
         <v>263</v>
       </c>
       <c r="E17" s="5">
-        <f>B17/10+C17/10+D17/20</f>
+        <f t="shared" si="0"/>
         <v>27.75</v>
       </c>
     </row>
@@ -1913,7 +1912,7 @@
         <v>194</v>
       </c>
       <c r="E18" s="5">
-        <f>B18/10+C18/10+D18/20</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
@@ -1931,7 +1930,7 @@
         <v>181</v>
       </c>
       <c r="E19" s="5">
-        <f>B19/10+C19/10+D19/20</f>
+        <f t="shared" si="0"/>
         <v>25.85</v>
       </c>
     </row>
@@ -1949,7 +1948,7 @@
         <v>186</v>
       </c>
       <c r="E20" s="5">
-        <f>B20/10+C20/10+D20/20</f>
+        <f t="shared" si="0"/>
         <v>24.5</v>
       </c>
     </row>
@@ -1967,7 +1966,7 @@
         <v>176</v>
       </c>
       <c r="E21" s="5">
-        <f>B21/10+C21/10+D21/20</f>
+        <f t="shared" si="0"/>
         <v>19.700000000000003</v>
       </c>
     </row>
@@ -1985,7 +1984,7 @@
         <v>132</v>
       </c>
       <c r="E22" s="5">
-        <f>B22/10+C22/10+D22/20</f>
+        <f t="shared" si="0"/>
         <v>19.600000000000001</v>
       </c>
     </row>
@@ -2003,7 +2002,7 @@
         <v>133</v>
       </c>
       <c r="E23" s="5">
-        <f>B23/10+C23/10+D23/20</f>
+        <f t="shared" si="0"/>
         <v>18.049999999999997</v>
       </c>
     </row>
@@ -2021,7 +2020,7 @@
         <v>224</v>
       </c>
       <c r="E24" s="5">
-        <f>B24/10+C24/10+D24/20</f>
+        <f t="shared" si="0"/>
         <v>16.5</v>
       </c>
     </row>
@@ -2039,7 +2038,7 @@
         <v>215</v>
       </c>
       <c r="E25" s="5">
-        <f>B25/10+C25/10+D25/20</f>
+        <f t="shared" si="0"/>
         <v>16.05</v>
       </c>
     </row>
@@ -2057,7 +2056,7 @@
         <v>120</v>
       </c>
       <c r="E26" s="5">
-        <f>B26/10+C26/10+D26/20</f>
+        <f t="shared" si="0"/>
         <v>15.3</v>
       </c>
     </row>
@@ -2075,7 +2074,7 @@
         <v>114</v>
       </c>
       <c r="E27" s="5">
-        <f>B27/10+C27/10+D27/20</f>
+        <f t="shared" si="0"/>
         <v>15.2</v>
       </c>
     </row>
@@ -2093,7 +2092,7 @@
         <v>165</v>
       </c>
       <c r="E28" s="5">
-        <f>B28/10+C28/10+D28/20</f>
+        <f t="shared" si="0"/>
         <v>14.55</v>
       </c>
     </row>
@@ -2111,7 +2110,7 @@
         <v>120</v>
       </c>
       <c r="E29" s="5">
-        <f>B29/10+C29/10+D29/20</f>
+        <f t="shared" si="0"/>
         <v>14.1</v>
       </c>
     </row>
@@ -2129,7 +2128,7 @@
         <v>179</v>
       </c>
       <c r="E30" s="5">
-        <f>B30/10+C30/10+D30/20</f>
+        <f t="shared" si="0"/>
         <v>10.45</v>
       </c>
     </row>
@@ -2147,7 +2146,7 @@
         <v>81</v>
       </c>
       <c r="E31" s="5">
-        <f>B31/10+C31/10+D31/20</f>
+        <f t="shared" si="0"/>
         <v>10.149999999999999</v>
       </c>
     </row>
@@ -2165,7 +2164,7 @@
         <v>92</v>
       </c>
       <c r="E32" s="5">
-        <f>B32/10+C32/10+D32/20</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -2179,7 +2178,7 @@
         <v>89</v>
       </c>
       <c r="E33" s="5">
-        <f>B33/10+C33/10+D33/20</f>
+        <f t="shared" si="0"/>
         <v>4.45</v>
       </c>
     </row>
@@ -2193,7 +2192,7 @@
         <v>84</v>
       </c>
       <c r="E34" s="5">
-        <f>B34/10+C34/10+D34/20</f>
+        <f t="shared" si="0"/>
         <v>4.2</v>
       </c>
     </row>
@@ -2207,7 +2206,7 @@
         <v>64</v>
       </c>
       <c r="E35" s="5">
-        <f>B35/10+C35/10+D35/20</f>
+        <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
     </row>
@@ -2221,7 +2220,7 @@
         <v>59</v>
       </c>
       <c r="E36" s="5">
-        <f>B36/10+C36/10+D36/20</f>
+        <f t="shared" si="0"/>
         <v>2.95</v>
       </c>
     </row>
@@ -2235,7 +2234,7 @@
         <v>54</v>
       </c>
       <c r="E37" s="5">
-        <f>B37/10+C37/10+D37/20</f>
+        <f t="shared" si="0"/>
         <v>2.7</v>
       </c>
     </row>
@@ -2249,7 +2248,7 @@
         <v>52</v>
       </c>
       <c r="E38" s="5">
-        <f>B38/10+C38/10+D38/20</f>
+        <f t="shared" si="0"/>
         <v>2.6</v>
       </c>
     </row>
@@ -2263,7 +2262,7 @@
         <v>51</v>
       </c>
       <c r="E39" s="5">
-        <f>B39/10+C39/10+D39/20</f>
+        <f t="shared" si="0"/>
         <v>2.5499999999999998</v>
       </c>
     </row>
@@ -2277,7 +2276,7 @@
         <v>36</v>
       </c>
       <c r="E40" s="5">
-        <f>B40/10+C40/10+D40/20</f>
+        <f t="shared" si="0"/>
         <v>1.8</v>
       </c>
     </row>
@@ -2289,7 +2288,7 @@
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="5">
-        <f>B41/10+C41/10+D41/20</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2301,7 +2300,7 @@
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="5">
-        <f>B42/10+C42/10+D42/20</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2313,7 +2312,7 @@
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="5">
-        <f>B43/10+C43/10+D43/20</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2325,7 +2324,7 @@
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="5">
-        <f>B44/10+C44/10+D44/20</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2337,7 +2336,7 @@
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="5">
-        <f>B45/10+C45/10+D45/20</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2349,7 +2348,7 @@
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="5">
-        <f>B46/10+C46/10+D46/20</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2361,7 +2360,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="5">
-        <f>B47/10+C47/10+D47/20</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
